--- a/Base/Backlog_13.xlsx
+++ b/Base/Backlog_13.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BC5C6-0914-4607-AF3A-9E8E21DC1404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1AD9CB-7F77-43EE-B0BC-DE2BF244547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
     <sheet name="ITI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$J$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPN!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>Backlog</t>
   </si>
@@ -89,6 +89,30 @@
   </si>
   <si>
     <t>Willian Rios</t>
+  </si>
+  <si>
+    <t>Michel Pessoa</t>
+  </si>
+  <si>
+    <t>Jorgenaldo Reis</t>
+  </si>
+  <si>
+    <t>Sostenes Simoes</t>
+  </si>
+  <si>
+    <t>Erick Silva</t>
+  </si>
+  <si>
+    <t>Felipe Nascimento</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
+  </si>
+  <si>
+    <t>Mara neves</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -132,12 +156,18 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -207,6 +237,16 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -582,6 +622,9 @@
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" s="6">
         <v>2025</v>
       </c>
@@ -594,7 +637,9 @@
       <c r="F2" s="10">
         <v>45751</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="6">
+        <v>329259</v>
+      </c>
       <c r="H2" s="2">
         <v>45717</v>
       </c>
@@ -602,7 +647,7 @@
         <v>45747</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -612,6 +657,9 @@
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="6">
         <v>2025</v>
       </c>
@@ -624,7 +672,9 @@
       <c r="F3" s="10">
         <v>45751</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>329279</v>
+      </c>
       <c r="H3" s="2">
         <v>45717</v>
       </c>
@@ -632,7 +682,7 @@
         <v>45747</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>15</v>
@@ -642,6 +692,9 @@
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="6">
         <v>2025</v>
       </c>
@@ -654,6 +707,9 @@
       <c r="F4" s="10">
         <v>45751</v>
       </c>
+      <c r="G4" s="6">
+        <v>329831</v>
+      </c>
       <c r="H4" s="2">
         <v>45717</v>
       </c>
@@ -661,7 +717,7 @@
         <v>45747</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -671,6 +727,9 @@
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="6">
         <v>2025</v>
       </c>
@@ -683,6 +742,9 @@
       <c r="F5" s="10">
         <v>45751</v>
       </c>
+      <c r="G5" s="6">
+        <v>330421</v>
+      </c>
       <c r="H5" s="2">
         <v>45717</v>
       </c>
@@ -690,162 +752,51 @@
         <v>45747</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="6">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10">
-        <v>45747</v>
-      </c>
-      <c r="F6" s="10">
-        <v>45751</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45717</v>
-      </c>
-      <c r="I6" s="10">
-        <v>45747</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="6">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10">
-        <v>45747</v>
-      </c>
-      <c r="F7" s="10">
-        <v>45751</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45717</v>
-      </c>
-      <c r="I7" s="10">
-        <v>45747</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="6">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10">
-        <v>45747</v>
-      </c>
-      <c r="F8" s="10">
-        <v>45751</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45717</v>
-      </c>
-      <c r="I8" s="10">
-        <v>45747</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="6">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10">
-        <v>45747</v>
-      </c>
-      <c r="F9" s="10">
-        <v>45751</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45717</v>
-      </c>
-      <c r="I9" s="10">
-        <v>45747</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="6">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10">
-        <v>45747</v>
-      </c>
-      <c r="F10" s="10">
-        <v>45751</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45717</v>
-      </c>
-      <c r="I10" s="10">
-        <v>45747</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="H11" s="4"/>
       <c r="I11" s="10"/>
       <c r="K11" s="9"/>
     </row>
@@ -897,48 +848,6 @@
       <c r="F18" s="10"/>
       <c r="I18" s="10"/>
       <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="K24" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
@@ -953,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1011,61 +920,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12">
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15">
         <v>2025</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="15">
         <v>13</v>
       </c>
-      <c r="E2" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="E2" s="16">
+        <v>45747</v>
+      </c>
+      <c r="F2" s="16">
         <v>45751</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="G2" s="15">
+        <v>329559</v>
+      </c>
+      <c r="H2" s="17">
+        <v>45717</v>
+      </c>
+      <c r="I2" s="16">
+        <v>45747</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12">
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15">
         <v>2025</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="15">
         <v>13</v>
       </c>
-      <c r="E3" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="E3" s="16">
+        <v>45747</v>
+      </c>
+      <c r="F3" s="16">
         <v>45751</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="G3" s="15">
+        <v>330101</v>
+      </c>
+      <c r="H3" s="17">
+        <v>45717</v>
+      </c>
+      <c r="I3" s="16">
+        <v>45747</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1073,7 +994,9 @@
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="12">
         <v>2025</v>
       </c>
@@ -1086,8 +1009,12 @@
       <c r="F4" s="13">
         <v>45751</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="12">
+        <v>326324</v>
+      </c>
+      <c r="H4" s="14">
+        <v>45689</v>
+      </c>
       <c r="I4" s="13">
         <v>45747</v>
       </c>
@@ -1102,7 +1029,9 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="12">
         <v>2025</v>
       </c>
@@ -1115,8 +1044,12 @@
       <c r="F5" s="13">
         <v>45751</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="12">
+        <v>329439</v>
+      </c>
+      <c r="H5" s="14">
+        <v>45717</v>
+      </c>
       <c r="I5" s="13">
         <v>45747</v>
       </c>
@@ -1131,7 +1064,9 @@
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="12">
         <v>2025</v>
       </c>
@@ -1144,8 +1079,12 @@
       <c r="F6" s="13">
         <v>45751</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="12">
+        <v>315817</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45689</v>
+      </c>
       <c r="I6" s="13">
         <v>45747</v>
       </c>
@@ -1156,90 +1095,108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15">
         <v>2025</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <v>13</v>
       </c>
-      <c r="E7" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="16">
+        <v>45747</v>
+      </c>
+      <c r="F7" s="16">
         <v>45751</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="G7" s="15">
+        <v>329517</v>
+      </c>
+      <c r="H7" s="17">
+        <v>45717</v>
+      </c>
+      <c r="I7" s="16">
+        <v>45747</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12">
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
         <v>2025</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="15">
         <v>13</v>
       </c>
-      <c r="E8" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="16">
+        <v>45747</v>
+      </c>
+      <c r="F8" s="16">
         <v>45751</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="G8" s="15">
+        <v>330241</v>
+      </c>
+      <c r="H8" s="17">
+        <v>45717</v>
+      </c>
+      <c r="I8" s="16">
+        <v>45747</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12">
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15">
         <v>2025</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <v>13</v>
       </c>
-      <c r="E9" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="16">
+        <v>45747</v>
+      </c>
+      <c r="F9" s="16">
         <v>45751</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="G9" s="15">
+        <v>329432</v>
+      </c>
+      <c r="H9" s="17">
+        <v>45717</v>
+      </c>
+      <c r="I9" s="16">
+        <v>45747</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1247,7 +1204,9 @@
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="12">
         <v>2025</v>
       </c>
@@ -1260,8 +1219,12 @@
       <c r="F10" s="13">
         <v>45751</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="12">
+        <v>329854</v>
+      </c>
+      <c r="H10" s="14">
+        <v>45717</v>
+      </c>
       <c r="I10" s="13">
         <v>45747</v>
       </c>
@@ -1272,92 +1235,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12">
+      <c r="B11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15">
         <v>2025</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="15">
         <v>13</v>
       </c>
-      <c r="E11" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="16">
+        <v>45747</v>
+      </c>
+      <c r="F11" s="16">
         <v>45751</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="G11" s="15">
+        <v>329889</v>
+      </c>
+      <c r="H11" s="17">
+        <v>45717</v>
+      </c>
+      <c r="I11" s="16">
+        <v>45747</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="12">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F12" s="13">
-        <v>45751</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="12">
-        <v>13</v>
-      </c>
-      <c r="E13" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F13" s="13">
-        <v>45751</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13">
-        <v>45747</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
@@ -1398,8 +1331,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="8"/>
       <c r="J17" s="3"/>
     </row>
@@ -1409,8 +1341,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="8"/>
       <c r="J18" s="3"/>
     </row>
@@ -1625,24 +1556,16 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="H40" s="2"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="H41" s="2"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
@@ -1658,13 +1581,11 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
-      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
-      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="I45" s="8"/>
     </row>
@@ -1679,65 +1600,59 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="3"/>
       <c r="F48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="3"/>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J18" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
+  <autoFilter ref="A1:J16" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+      <sortCondition ref="B1:B16"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_13.xlsx
+++ b/Base/Backlog_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1AD9CB-7F77-43EE-B0BC-DE2BF244547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE8E110-EDEA-4E1E-87A6-85A919E7741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -109,10 +109,10 @@
     <t>Higor Cruz</t>
   </si>
   <si>
-    <t>Mara neves</t>
-  </si>
-  <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Mara Neves</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6">
         <v>2025</v>
@@ -647,7 +647,7 @@
         <v>45747</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -682,7 +682,7 @@
         <v>45747</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>15</v>
@@ -717,7 +717,7 @@
         <v>45747</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -752,7 +752,7 @@
         <v>45747</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>15</v>
@@ -862,10 +862,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -920,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -949,13 +950,13 @@
         <v>45747</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -984,13 +985,13 @@
         <v>45747</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -1124,13 +1125,13 @@
         <v>45747</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -1159,13 +1160,13 @@
         <v>45747</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>45747</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>11</v>
@@ -1235,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
@@ -1264,13 +1265,13 @@
         <v>45747</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="3"/>
@@ -1281,7 +1282,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="3"/>
@@ -1292,7 +1293,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
@@ -1303,7 +1304,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
@@ -1314,7 +1315,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
@@ -1649,6 +1650,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J16" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2025" month="3" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
       <sortCondition ref="B1:B16"/>
     </sortState>

--- a/Base/Backlog_13.xlsx
+++ b/Base/Backlog_13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE8E110-EDEA-4E1E-87A6-85A919E7741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C6581C-6DA1-476C-83A3-B281E33788F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Sostenes Simoes</t>
   </si>
   <si>
-    <t>Erick Silva</t>
-  </si>
-  <si>
     <t>Felipe Nascimento</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Mara Neves</t>
+  </si>
+  <si>
+    <t>Erick da Silva</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6">
         <v>2025</v>
@@ -647,7 +647,7 @@
         <v>45747</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -658,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6">
         <v>2025</v>
@@ -682,7 +682,7 @@
         <v>45747</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>15</v>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6">
         <v>2025</v>
@@ -717,7 +717,7 @@
         <v>45747</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6">
         <v>2025</v>
@@ -752,7 +752,7 @@
         <v>45747</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>15</v>
@@ -862,11 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -921,12 +920,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15">
         <v>2025</v>
@@ -950,18 +949,18 @@
         <v>45747</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15">
         <v>2025</v>
@@ -985,13 +984,13 @@
         <v>45747</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -1125,13 +1124,13 @@
         <v>45747</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -1160,13 +1159,13 @@
         <v>45747</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>45747</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>11</v>
@@ -1236,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
@@ -1265,13 +1264,13 @@
         <v>45747</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="3"/>
@@ -1282,7 +1281,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="3"/>
@@ -1293,7 +1292,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
@@ -1304,7 +1303,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
@@ -1315,7 +1314,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
@@ -1650,16 +1649,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J16" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <filterColumn colId="7">
-      <filters>
-        <dateGroupItem year="2025" month="3" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Pendente"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
       <sortCondition ref="B1:B16"/>
     </sortState>
